--- a/natmiOut/OldD7/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.63071630867258</v>
+        <v>6.112374333333332</v>
       </c>
       <c r="H2">
-        <v>5.63071630867258</v>
+        <v>18.337123</v>
       </c>
       <c r="I2">
-        <v>0.01996101469724769</v>
+        <v>0.02125075796073207</v>
       </c>
       <c r="J2">
-        <v>0.01996101469724769</v>
+        <v>0.02125075796073207</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.42264164903421</v>
+        <v>3.554362333333333</v>
       </c>
       <c r="N2">
-        <v>3.42264164903421</v>
+        <v>10.663087</v>
       </c>
       <c r="O2">
-        <v>0.2060730222461505</v>
+        <v>0.2019894022634335</v>
       </c>
       <c r="P2">
-        <v>0.2060730222461505</v>
+        <v>0.2019894022634335</v>
       </c>
       <c r="Q2">
-        <v>19.27192415195894</v>
+        <v>21.72559309763344</v>
       </c>
       <c r="R2">
-        <v>19.27192415195894</v>
+        <v>195.530337878701</v>
       </c>
       <c r="S2">
-        <v>0.00411342662576166</v>
+        <v>0.004292427898133172</v>
       </c>
       <c r="T2">
-        <v>0.00411342662576166</v>
+        <v>0.004292427898133173</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.63071630867258</v>
+        <v>6.112374333333332</v>
       </c>
       <c r="H3">
-        <v>5.63071630867258</v>
+        <v>18.337123</v>
       </c>
       <c r="I3">
-        <v>0.01996101469724769</v>
+        <v>0.02125075796073207</v>
       </c>
       <c r="J3">
-        <v>0.01996101469724769</v>
+        <v>0.02125075796073207</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.4481873681165</v>
+        <v>11.625787</v>
       </c>
       <c r="N3">
-        <v>11.4481873681165</v>
+        <v>34.877361</v>
       </c>
       <c r="O3">
-        <v>0.6892812079388072</v>
+        <v>0.6606770910634029</v>
       </c>
       <c r="P3">
-        <v>0.6892812079388072</v>
+        <v>0.6606770910634029</v>
       </c>
       <c r="Q3">
-        <v>64.46149531839301</v>
+        <v>71.06116206360032</v>
       </c>
       <c r="R3">
-        <v>64.46149531839301</v>
+        <v>639.5504585724029</v>
       </c>
       <c r="S3">
-        <v>0.01375875232220317</v>
+        <v>0.01403988895238892</v>
       </c>
       <c r="T3">
-        <v>0.01375875232220317</v>
+        <v>0.01403988895238892</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.63071630867258</v>
+        <v>6.112374333333332</v>
       </c>
       <c r="H4">
-        <v>5.63071630867258</v>
+        <v>18.337123</v>
       </c>
       <c r="I4">
-        <v>0.01996101469724769</v>
+        <v>0.02125075796073207</v>
       </c>
       <c r="J4">
-        <v>0.01996101469724769</v>
+        <v>0.02125075796073207</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.73804880551705</v>
+        <v>0.02609533333333333</v>
       </c>
       <c r="N4">
-        <v>1.73804880551705</v>
+        <v>0.07828599999999999</v>
       </c>
       <c r="O4">
-        <v>0.1046457698150422</v>
+        <v>0.001482961017348462</v>
       </c>
       <c r="P4">
-        <v>0.1046457698150422</v>
+        <v>0.001482961017348462</v>
       </c>
       <c r="Q4">
-        <v>9.786459754493752</v>
+        <v>0.1595044456864444</v>
       </c>
       <c r="R4">
-        <v>9.786459754493752</v>
+        <v>1.435540011178</v>
       </c>
       <c r="S4">
-        <v>0.002088835749282856</v>
+        <v>3.151404564487315E-05</v>
       </c>
       <c r="T4">
-        <v>0.002088835749282856</v>
+        <v>3.151404564487315E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>262.504562587171</v>
+        <v>6.112374333333332</v>
       </c>
       <c r="H5">
-        <v>262.504562587171</v>
+        <v>18.337123</v>
       </c>
       <c r="I5">
-        <v>0.9305845197397934</v>
+        <v>0.02125075796073207</v>
       </c>
       <c r="J5">
-        <v>0.9305845197397934</v>
+        <v>0.02125075796073207</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.42264164903421</v>
+        <v>2.390531666666666</v>
       </c>
       <c r="N5">
-        <v>3.42264164903421</v>
+        <v>7.171595</v>
       </c>
       <c r="O5">
-        <v>0.2060730222461505</v>
+        <v>0.1358505456558151</v>
       </c>
       <c r="P5">
-        <v>0.2060730222461505</v>
+        <v>0.1358505456558151</v>
       </c>
       <c r="Q5">
-        <v>898.4590489723589</v>
+        <v>14.61182440235389</v>
       </c>
       <c r="R5">
-        <v>898.4590489723589</v>
+        <v>131.506419621185</v>
       </c>
       <c r="S5">
-        <v>0.1917683644382618</v>
+        <v>0.002886927064565108</v>
       </c>
       <c r="T5">
-        <v>0.1917683644382618</v>
+        <v>0.002886927064565109</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>262.504562587171</v>
+        <v>263.0904693333333</v>
       </c>
       <c r="H6">
-        <v>262.504562587171</v>
+        <v>789.271408</v>
       </c>
       <c r="I6">
-        <v>0.9305845197397934</v>
+        <v>0.9146808720612395</v>
       </c>
       <c r="J6">
-        <v>0.9305845197397934</v>
+        <v>0.9146808720612395</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.4481873681165</v>
+        <v>3.554362333333333</v>
       </c>
       <c r="N6">
-        <v>11.4481873681165</v>
+        <v>10.663087</v>
       </c>
       <c r="O6">
-        <v>0.6892812079388072</v>
+        <v>0.2019894022634335</v>
       </c>
       <c r="P6">
-        <v>0.6892812079388072</v>
+        <v>0.2019894022634335</v>
       </c>
       <c r="Q6">
-        <v>3005.201417483398</v>
+        <v>935.1188544573884</v>
       </c>
       <c r="R6">
-        <v>3005.201417483398</v>
+        <v>8416.069690116496</v>
       </c>
       <c r="S6">
-        <v>0.6414344218553996</v>
+        <v>0.1847558426094458</v>
       </c>
       <c r="T6">
-        <v>0.6414344218553996</v>
+        <v>0.1847558426094459</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>262.504562587171</v>
+        <v>263.0904693333333</v>
       </c>
       <c r="H7">
-        <v>262.504562587171</v>
+        <v>789.271408</v>
       </c>
       <c r="I7">
-        <v>0.9305845197397934</v>
+        <v>0.9146808720612395</v>
       </c>
       <c r="J7">
-        <v>0.9305845197397934</v>
+        <v>0.9146808720612395</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.73804880551705</v>
+        <v>11.625787</v>
       </c>
       <c r="N7">
-        <v>1.73804880551705</v>
+        <v>34.877361</v>
       </c>
       <c r="O7">
-        <v>0.1046457698150422</v>
+        <v>0.6606770910634029</v>
       </c>
       <c r="P7">
-        <v>0.1046457698150422</v>
+        <v>0.6606770910634029</v>
       </c>
       <c r="Q7">
-        <v>456.2457414474082</v>
+        <v>3058.633758199365</v>
       </c>
       <c r="R7">
-        <v>456.2457414474082</v>
+        <v>27527.70382379429</v>
       </c>
       <c r="S7">
-        <v>0.09738173344613203</v>
+        <v>0.6043086978047563</v>
       </c>
       <c r="T7">
-        <v>0.09738173344613203</v>
+        <v>0.6043086978047563</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.6296367611314</v>
+        <v>263.0904693333333</v>
       </c>
       <c r="H8">
-        <v>7.6296367611314</v>
+        <v>789.271408</v>
       </c>
       <c r="I8">
-        <v>0.02704723221254032</v>
+        <v>0.9146808720612395</v>
       </c>
       <c r="J8">
-        <v>0.02704723221254032</v>
+        <v>0.9146808720612395</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.42264164903421</v>
+        <v>0.02609533333333333</v>
       </c>
       <c r="N8">
-        <v>3.42264164903421</v>
+        <v>0.07828599999999999</v>
       </c>
       <c r="O8">
-        <v>0.2060730222461505</v>
+        <v>0.001482961017348462</v>
       </c>
       <c r="P8">
-        <v>0.2060730222461505</v>
+        <v>0.001482961017348462</v>
       </c>
       <c r="Q8">
-        <v>26.1135125456508</v>
+        <v>6.865433494076443</v>
       </c>
       <c r="R8">
-        <v>26.1135125456508</v>
+        <v>61.78890144668799</v>
       </c>
       <c r="S8">
-        <v>0.00557370488543162</v>
+        <v>0.001356436076581114</v>
       </c>
       <c r="T8">
-        <v>0.00557370488543162</v>
+        <v>0.001356436076581114</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.6296367611314</v>
+        <v>263.0904693333333</v>
       </c>
       <c r="H9">
-        <v>7.6296367611314</v>
+        <v>789.271408</v>
       </c>
       <c r="I9">
-        <v>0.02704723221254032</v>
+        <v>0.9146808720612395</v>
       </c>
       <c r="J9">
-        <v>0.02704723221254032</v>
+        <v>0.9146808720612395</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.4481873681165</v>
+        <v>2.390531666666666</v>
       </c>
       <c r="N9">
-        <v>11.4481873681165</v>
+        <v>7.171595</v>
       </c>
       <c r="O9">
-        <v>0.6892812079388072</v>
+        <v>0.1358505456558151</v>
       </c>
       <c r="P9">
-        <v>0.6892812079388072</v>
+        <v>0.1358505456558151</v>
       </c>
       <c r="Q9">
-        <v>87.34551119210178</v>
+        <v>628.9260981395288</v>
       </c>
       <c r="R9">
-        <v>87.34551119210178</v>
+        <v>5660.334883255759</v>
       </c>
       <c r="S9">
-        <v>0.01864314889086121</v>
+        <v>0.1242598955704562</v>
       </c>
       <c r="T9">
-        <v>0.01864314889086121</v>
+        <v>0.1242598955704562</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.6296367611314</v>
+        <v>8.317515</v>
       </c>
       <c r="H10">
-        <v>7.6296367611314</v>
+        <v>24.952545</v>
       </c>
       <c r="I10">
-        <v>0.02704723221254032</v>
+        <v>0.02891732221566466</v>
       </c>
       <c r="J10">
-        <v>0.02704723221254032</v>
+        <v>0.02891732221566466</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.73804880551705</v>
+        <v>3.554362333333333</v>
       </c>
       <c r="N10">
-        <v>1.73804880551705</v>
+        <v>10.663087</v>
       </c>
       <c r="O10">
-        <v>0.1046457698150422</v>
+        <v>0.2019894022634335</v>
       </c>
       <c r="P10">
-        <v>0.1046457698150422</v>
+        <v>0.2019894022634335</v>
       </c>
       <c r="Q10">
-        <v>13.2606810592134</v>
+        <v>29.563462022935</v>
       </c>
       <c r="R10">
-        <v>13.2606810592134</v>
+        <v>266.071158206415</v>
       </c>
       <c r="S10">
-        <v>0.002830378436247489</v>
+        <v>0.00584099262940121</v>
       </c>
       <c r="T10">
-        <v>0.002830378436247489</v>
+        <v>0.005840992629401211</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.32075954915415</v>
+        <v>8.317515</v>
       </c>
       <c r="H11">
-        <v>6.32075954915415</v>
+        <v>24.952545</v>
       </c>
       <c r="I11">
-        <v>0.02240723335041869</v>
+        <v>0.02891732221566466</v>
       </c>
       <c r="J11">
-        <v>0.02240723335041869</v>
+        <v>0.02891732221566466</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.42264164903421</v>
+        <v>11.625787</v>
       </c>
       <c r="N11">
-        <v>3.42264164903421</v>
+        <v>34.877361</v>
       </c>
       <c r="O11">
-        <v>0.2060730222461505</v>
+        <v>0.6606770910634029</v>
       </c>
       <c r="P11">
-        <v>0.2060730222461505</v>
+        <v>0.6606770910634029</v>
       </c>
       <c r="Q11">
-        <v>21.63369488646569</v>
+        <v>96.697657759305</v>
       </c>
       <c r="R11">
-        <v>21.63369488646569</v>
+        <v>870.278919833745</v>
       </c>
       <c r="S11">
-        <v>0.004617526296695517</v>
+        <v>0.01910501232278844</v>
       </c>
       <c r="T11">
-        <v>0.004617526296695517</v>
+        <v>0.01910501232278844</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.32075954915415</v>
+        <v>8.317515</v>
       </c>
       <c r="H12">
-        <v>6.32075954915415</v>
+        <v>24.952545</v>
       </c>
       <c r="I12">
-        <v>0.02240723335041869</v>
+        <v>0.02891732221566466</v>
       </c>
       <c r="J12">
-        <v>0.02240723335041869</v>
+        <v>0.02891732221566466</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>11.4481873681165</v>
+        <v>0.02609533333333333</v>
       </c>
       <c r="N12">
-        <v>11.4481873681165</v>
+        <v>0.07828599999999999</v>
       </c>
       <c r="O12">
-        <v>0.6892812079388072</v>
+        <v>0.001482961017348462</v>
       </c>
       <c r="P12">
-        <v>0.6892812079388072</v>
+        <v>0.001482961017348462</v>
       </c>
       <c r="Q12">
-        <v>72.36123962752829</v>
+        <v>0.21704832643</v>
       </c>
       <c r="R12">
-        <v>72.36123962752829</v>
+        <v>1.95343493787</v>
       </c>
       <c r="S12">
-        <v>0.01544488487034332</v>
+        <v>4.288326157193532E-05</v>
       </c>
       <c r="T12">
-        <v>0.01544488487034332</v>
+        <v>4.288326157193532E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.32075954915415</v>
+        <v>8.317515</v>
       </c>
       <c r="H13">
-        <v>6.32075954915415</v>
+        <v>24.952545</v>
       </c>
       <c r="I13">
-        <v>0.02240723335041869</v>
+        <v>0.02891732221566466</v>
       </c>
       <c r="J13">
-        <v>0.02240723335041869</v>
+        <v>0.02891732221566466</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.73804880551705</v>
+        <v>2.390531666666666</v>
       </c>
       <c r="N13">
-        <v>1.73804880551705</v>
+        <v>7.171595</v>
       </c>
       <c r="O13">
-        <v>0.1046457698150422</v>
+        <v>0.1358505456558151</v>
       </c>
       <c r="P13">
-        <v>0.1046457698150422</v>
+        <v>0.1358505456558151</v>
       </c>
       <c r="Q13">
-        <v>10.98578858436786</v>
+        <v>19.883282995475</v>
       </c>
       <c r="R13">
-        <v>10.98578858436786</v>
+        <v>178.949546959275</v>
       </c>
       <c r="S13">
-        <v>0.002344822183379851</v>
+        <v>0.003928434001903067</v>
       </c>
       <c r="T13">
-        <v>0.002344822183379851</v>
+        <v>0.003928434001903068</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>10.110527</v>
+      </c>
+      <c r="H14">
+        <v>30.331581</v>
+      </c>
+      <c r="I14">
+        <v>0.03515104776236379</v>
+      </c>
+      <c r="J14">
+        <v>0.03515104776236379</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.554362333333333</v>
+      </c>
+      <c r="N14">
+        <v>10.663087</v>
+      </c>
+      <c r="O14">
+        <v>0.2019894022634335</v>
+      </c>
+      <c r="P14">
+        <v>0.2019894022634335</v>
+      </c>
+      <c r="Q14">
+        <v>35.93647633894966</v>
+      </c>
+      <c r="R14">
+        <v>323.428287050547</v>
+      </c>
+      <c r="S14">
+        <v>0.007100139126453264</v>
+      </c>
+      <c r="T14">
+        <v>0.007100139126453265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>10.110527</v>
+      </c>
+      <c r="H15">
+        <v>30.331581</v>
+      </c>
+      <c r="I15">
+        <v>0.03515104776236379</v>
+      </c>
+      <c r="J15">
+        <v>0.03515104776236379</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>11.625787</v>
+      </c>
+      <c r="N15">
+        <v>34.877361</v>
+      </c>
+      <c r="O15">
+        <v>0.6606770910634029</v>
+      </c>
+      <c r="P15">
+        <v>0.6606770910634029</v>
+      </c>
+      <c r="Q15">
+        <v>117.542833359749</v>
+      </c>
+      <c r="R15">
+        <v>1057.885500237741</v>
+      </c>
+      <c r="S15">
+        <v>0.02322349198346925</v>
+      </c>
+      <c r="T15">
+        <v>0.02322349198346925</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>10.110527</v>
+      </c>
+      <c r="H16">
+        <v>30.331581</v>
+      </c>
+      <c r="I16">
+        <v>0.03515104776236379</v>
+      </c>
+      <c r="J16">
+        <v>0.03515104776236379</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02609533333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.07828599999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.001482961017348462</v>
+      </c>
+      <c r="P16">
+        <v>0.001482961017348462</v>
+      </c>
+      <c r="Q16">
+        <v>0.2638375722406666</v>
+      </c>
+      <c r="R16">
+        <v>2.374538150166</v>
+      </c>
+      <c r="S16">
+        <v>5.212763355053937E-05</v>
+      </c>
+      <c r="T16">
+        <v>5.212763355053937E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>10.110527</v>
+      </c>
+      <c r="H17">
+        <v>30.331581</v>
+      </c>
+      <c r="I17">
+        <v>0.03515104776236379</v>
+      </c>
+      <c r="J17">
+        <v>0.03515104776236379</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.390531666666666</v>
+      </c>
+      <c r="N17">
+        <v>7.171595</v>
+      </c>
+      <c r="O17">
+        <v>0.1358505456558151</v>
+      </c>
+      <c r="P17">
+        <v>0.1358505456558151</v>
+      </c>
+      <c r="Q17">
+        <v>24.16953496018833</v>
+      </c>
+      <c r="R17">
+        <v>217.525814641695</v>
+      </c>
+      <c r="S17">
+        <v>0.004775289018890739</v>
+      </c>
+      <c r="T17">
+        <v>0.004775289018890741</v>
       </c>
     </row>
   </sheetData>
